--- a/data/documentation.xlsx
+++ b/data/documentation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yuziq\Documents\gnss_ir_analyze\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07924762-A676-4FD1-8A13-37201A3E44BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A9C7A39-3E5F-42AD-9946-FEBB8290EB20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="9">
   <si>
     <t>time</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -56,6 +56,10 @@
   </si>
   <si>
     <t>Ober Esslingen</t>
+  </si>
+  <si>
+    <t>Ober Esslingen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -98,7 +102,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -106,6 +110,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -386,15 +391,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.21875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.44140625" bestFit="1" customWidth="1"/>
@@ -787,7 +792,7 @@
         <v>44838</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20">
         <v>2</v>
@@ -860,6 +865,86 @@
       </c>
       <c r="F23">
         <v>274.78512999999998</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <v>44865</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24">
+        <v>2</v>
+      </c>
+      <c r="D24">
+        <v>48.728560331361599</v>
+      </c>
+      <c r="E24">
+        <v>9.3190431146017492</v>
+      </c>
+      <c r="F24">
+        <v>289.28138822410199</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <v>44865</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25">
+        <v>3</v>
+      </c>
+      <c r="D25">
+        <v>48.7285773156364</v>
+      </c>
+      <c r="E25">
+        <v>9.3190471505835699</v>
+      </c>
+      <c r="F25">
+        <v>290.75371106341402</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <v>44869</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26">
+        <v>2</v>
+      </c>
+      <c r="D26">
+        <v>48.797628311345001</v>
+      </c>
+      <c r="E26">
+        <v>9.2137303898507099</v>
+      </c>
+      <c r="F26">
+        <v>269.56545762717701</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <v>44869</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27">
+        <v>3</v>
+      </c>
+      <c r="D27">
+        <v>48.797591784532301</v>
+      </c>
+      <c r="E27">
+        <v>9.2137453128301203</v>
+      </c>
+      <c r="F27">
+        <v>266.30082657374402</v>
       </c>
     </row>
   </sheetData>
